--- a/fichiers/HistoriqueFactures.xlsx
+++ b/fichiers/HistoriqueFactures.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M5"/>
+  <dimension ref="A1:O6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -499,6 +499,16 @@
           <t>total_ttc</t>
         </is>
       </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>Index</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>N° Facture</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -530,6 +540,8 @@
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="inlineStr"/>
       <c r="M2" t="inlineStr"/>
+      <c r="N2" t="inlineStr"/>
+      <c r="O2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -561,6 +573,8 @@
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="inlineStr"/>
       <c r="M3" t="inlineStr"/>
+      <c r="N3" t="inlineStr"/>
+      <c r="O3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr"/>
@@ -600,13 +614,13 @@
       <c r="M4" t="n">
         <v>1670290</v>
       </c>
+      <c r="N4" t="inlineStr"/>
+      <c r="O4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr"/>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>000004</t>
-        </is>
+      <c r="B5" t="n">
+        <v>4</v>
       </c>
       <c r="C5" t="inlineStr"/>
       <c r="D5" t="inlineStr"/>
@@ -640,6 +654,45 @@
       </c>
       <c r="M5" t="n">
         <v>582920</v>
+      </c>
+      <c r="N5" t="inlineStr"/>
+      <c r="O5" t="inlineStr"/>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>2025-07-15</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr"/>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>C002</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>Kora SARL</t>
+        </is>
+      </c>
+      <c r="E6" t="n">
+        <v>364325</v>
+      </c>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr"/>
+      <c r="I6" t="inlineStr"/>
+      <c r="J6" t="inlineStr"/>
+      <c r="K6" t="inlineStr"/>
+      <c r="L6" t="inlineStr"/>
+      <c r="M6" t="inlineStr"/>
+      <c r="N6" t="n">
+        <v>1</v>
+      </c>
+      <c r="O6" t="inlineStr">
+        <is>
+          <t>000001</t>
+        </is>
       </c>
     </row>
   </sheetData>

--- a/fichiers/HistoriqueFactures.xlsx
+++ b/fichiers/HistoriqueFactures.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O6"/>
+  <dimension ref="A1:O7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -689,11 +689,52 @@
       <c r="N6" t="n">
         <v>1</v>
       </c>
-      <c r="O6" t="inlineStr">
+      <c r="O6" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr"/>
+      <c r="B7" t="inlineStr">
         <is>
           <t>000001</t>
         </is>
       </c>
+      <c r="C7" t="inlineStr"/>
+      <c r="D7" t="inlineStr"/>
+      <c r="E7" t="inlineStr"/>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>15/07/2025</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>C002</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Kora SARL</t>
+        </is>
+      </c>
+      <c r="I7" t="n">
+        <v>915000</v>
+      </c>
+      <c r="J7" t="n">
+        <v>45750</v>
+      </c>
+      <c r="K7" t="n">
+        <v>869250</v>
+      </c>
+      <c r="L7" t="n">
+        <v>156465</v>
+      </c>
+      <c r="M7" t="n">
+        <v>1025715</v>
+      </c>
+      <c r="N7" t="inlineStr"/>
+      <c r="O7" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/fichiers/HistoriqueFactures.xlsx
+++ b/fichiers/HistoriqueFactures.xlsx
@@ -1,37 +1,117 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
   <workbookPr/>
-  <workbookProtection/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\Application-Console-de-Facturation-et-Statistiques-de-Ventes\fichiers\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A3018DA-8333-4EA9-8A6F-B8EB3D8C6653}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="1116" yWindow="1116" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="23">
+  <si>
+    <t>Date</t>
+  </si>
+  <si>
+    <t>num_facture</t>
+  </si>
+  <si>
+    <t>Code Client</t>
+  </si>
+  <si>
+    <t>Nom Client</t>
+  </si>
+  <si>
+    <t>Montant TTC</t>
+  </si>
+  <si>
+    <t>date</t>
+  </si>
+  <si>
+    <t>code_client</t>
+  </si>
+  <si>
+    <t>nom</t>
+  </si>
+  <si>
+    <t>total_ht</t>
+  </si>
+  <si>
+    <t>reduction</t>
+  </si>
+  <si>
+    <t>total_ht_reduit</t>
+  </si>
+  <si>
+    <t>tva</t>
+  </si>
+  <si>
+    <t>total_ttc</t>
+  </si>
+  <si>
+    <t>2025-07-14 14:25</t>
+  </si>
+  <si>
+    <t>C001</t>
+  </si>
+  <si>
+    <t>Dupont SA</t>
+  </si>
+  <si>
+    <t>2025-07-14 14:33</t>
+  </si>
+  <si>
+    <t>C002</t>
+  </si>
+  <si>
+    <t>Kora SARL</t>
+  </si>
+  <si>
+    <t>14/07/2025</t>
+  </si>
+  <si>
+    <t>2025-07-15</t>
+  </si>
+  <si>
+    <t>15/07/2025</t>
+  </si>
+  <si>
+    <t>000002</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b val="1"/>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -46,93 +126,43 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -420,321 +450,224 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:O7"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:O8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="O6" sqref="O6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>Date</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>num_facture</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>Code Client</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>Nom Client</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>Montant TTC</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>date</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>code_client</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>nom</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>total_ht</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>reduction</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>total_ht_reduit</t>
-        </is>
-      </c>
-      <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>tva</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>total_ttc</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
-        <is>
-          <t>Index</t>
-        </is>
-      </c>
-      <c r="O1" s="1" t="inlineStr">
-        <is>
-          <t>N° Facture</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>2025-07-14 14:25</t>
-        </is>
-      </c>
-      <c r="B2" t="n">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>C001</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>Dupont SA</t>
-        </is>
-      </c>
-      <c r="E2" t="n">
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1"/>
+      <c r="O1" s="1"/>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E2">
         <v>666995</v>
       </c>
-      <c r="F2" t="inlineStr"/>
-      <c r="G2" t="inlineStr"/>
-      <c r="H2" t="inlineStr"/>
-      <c r="I2" t="inlineStr"/>
-      <c r="J2" t="inlineStr"/>
-      <c r="K2" t="inlineStr"/>
-      <c r="L2" t="inlineStr"/>
-      <c r="M2" t="inlineStr"/>
-      <c r="N2" t="inlineStr"/>
-      <c r="O2" t="inlineStr"/>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>2025-07-14 14:33</t>
-        </is>
-      </c>
-      <c r="B3" t="n">
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B3">
         <v>2</v>
       </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>C002</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>Kora SARL</t>
-        </is>
-      </c>
-      <c r="E3" t="n">
+      <c r="C3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E3">
         <v>1160235</v>
       </c>
-      <c r="F3" t="inlineStr"/>
-      <c r="G3" t="inlineStr"/>
-      <c r="H3" t="inlineStr"/>
-      <c r="I3" t="inlineStr"/>
-      <c r="J3" t="inlineStr"/>
-      <c r="K3" t="inlineStr"/>
-      <c r="L3" t="inlineStr"/>
-      <c r="M3" t="inlineStr"/>
-      <c r="N3" t="inlineStr"/>
-      <c r="O3" t="inlineStr"/>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr"/>
-      <c r="B4" t="n">
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="B4">
         <v>3</v>
       </c>
-      <c r="C4" t="inlineStr"/>
-      <c r="D4" t="inlineStr"/>
-      <c r="E4" t="inlineStr"/>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>14/07/2025</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>C001</t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>Dupont SA</t>
-        </is>
-      </c>
-      <c r="I4" t="n">
+      <c r="F4" t="s">
+        <v>19</v>
+      </c>
+      <c r="G4" t="s">
+        <v>14</v>
+      </c>
+      <c r="H4" t="s">
+        <v>15</v>
+      </c>
+      <c r="I4">
         <v>1490000</v>
       </c>
-      <c r="J4" t="n">
+      <c r="J4">
         <v>74500</v>
       </c>
-      <c r="K4" t="n">
+      <c r="K4">
         <v>1415500</v>
       </c>
-      <c r="L4" t="n">
+      <c r="L4">
         <v>254790</v>
       </c>
-      <c r="M4" t="n">
+      <c r="M4">
         <v>1670290</v>
       </c>
-      <c r="N4" t="inlineStr"/>
-      <c r="O4" t="inlineStr"/>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr"/>
-      <c r="B5" t="n">
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="B5">
         <v>4</v>
       </c>
-      <c r="C5" t="inlineStr"/>
-      <c r="D5" t="inlineStr"/>
-      <c r="E5" t="inlineStr"/>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>14/07/2025</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>C001</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>Dupont SA</t>
-        </is>
-      </c>
-      <c r="I5" t="n">
+      <c r="F5" t="s">
+        <v>19</v>
+      </c>
+      <c r="G5" t="s">
+        <v>14</v>
+      </c>
+      <c r="H5" t="s">
+        <v>15</v>
+      </c>
+      <c r="I5">
         <v>520000</v>
       </c>
-      <c r="J5" t="n">
+      <c r="J5">
         <v>26000</v>
       </c>
-      <c r="K5" t="n">
+      <c r="K5">
         <v>494000</v>
       </c>
-      <c r="L5" t="n">
+      <c r="L5">
         <v>88920</v>
       </c>
-      <c r="M5" t="n">
+      <c r="M5">
         <v>582920</v>
       </c>
-      <c r="N5" t="inlineStr"/>
-      <c r="O5" t="inlineStr"/>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>2025-07-15</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr"/>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>C002</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>Kora SARL</t>
-        </is>
-      </c>
-      <c r="E6" t="n">
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>20</v>
+      </c>
+      <c r="C6" t="s">
+        <v>17</v>
+      </c>
+      <c r="D6" t="s">
+        <v>18</v>
+      </c>
+      <c r="E6">
         <v>364325</v>
       </c>
-      <c r="F6" t="inlineStr"/>
-      <c r="G6" t="inlineStr"/>
-      <c r="H6" t="inlineStr"/>
-      <c r="I6" t="inlineStr"/>
-      <c r="J6" t="inlineStr"/>
-      <c r="K6" t="inlineStr"/>
-      <c r="L6" t="inlineStr"/>
-      <c r="M6" t="inlineStr"/>
-      <c r="N6" t="n">
+      <c r="O6">
         <v>1</v>
       </c>
-      <c r="O6" t="n">
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="B7">
         <v>1</v>
       </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr"/>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>000001</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr"/>
-      <c r="D7" t="inlineStr"/>
-      <c r="E7" t="inlineStr"/>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>15/07/2025</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>C002</t>
-        </is>
-      </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>Kora SARL</t>
-        </is>
-      </c>
-      <c r="I7" t="n">
+      <c r="F7" t="s">
+        <v>21</v>
+      </c>
+      <c r="G7" t="s">
+        <v>17</v>
+      </c>
+      <c r="H7" t="s">
+        <v>18</v>
+      </c>
+      <c r="I7">
         <v>915000</v>
       </c>
-      <c r="J7" t="n">
+      <c r="J7">
         <v>45750</v>
       </c>
-      <c r="K7" t="n">
+      <c r="K7">
         <v>869250</v>
       </c>
-      <c r="L7" t="n">
+      <c r="L7">
         <v>156465</v>
       </c>
-      <c r="M7" t="n">
+      <c r="M7">
         <v>1025715</v>
       </c>
-      <c r="N7" t="inlineStr"/>
-      <c r="O7" t="inlineStr"/>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="B8" t="s">
+        <v>22</v>
+      </c>
+      <c r="F8" t="s">
+        <v>21</v>
+      </c>
+      <c r="G8" t="s">
+        <v>14</v>
+      </c>
+      <c r="H8" t="s">
+        <v>15</v>
+      </c>
+      <c r="I8">
+        <v>93000</v>
+      </c>
+      <c r="J8">
+        <v>4650</v>
+      </c>
+      <c r="K8">
+        <v>88350</v>
+      </c>
+      <c r="L8">
+        <v>15903</v>
+      </c>
+      <c r="M8">
+        <v>104253</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/fichiers/HistoriqueFactures.xlsx
+++ b/fichiers/HistoriqueFactures.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O9"/>
+  <dimension ref="A1:O10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -775,10 +775,8 @@
     </row>
     <row r="9">
       <c r="A9" t="inlineStr"/>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>000003</t>
-        </is>
+      <c r="B9" t="n">
+        <v>3</v>
       </c>
       <c r="C9" t="inlineStr"/>
       <c r="D9" t="inlineStr"/>
@@ -816,6 +814,49 @@
       <c r="N9" t="inlineStr"/>
       <c r="O9" t="inlineStr"/>
     </row>
+    <row r="10">
+      <c r="A10" t="inlineStr"/>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>000004</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr"/>
+      <c r="D10" t="inlineStr"/>
+      <c r="E10" t="inlineStr"/>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>15/07/2025</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>C001</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>Dupont SA</t>
+        </is>
+      </c>
+      <c r="I10" t="n">
+        <v>621000</v>
+      </c>
+      <c r="J10" t="n">
+        <v>31050</v>
+      </c>
+      <c r="K10" t="n">
+        <v>589950</v>
+      </c>
+      <c r="L10" t="n">
+        <v>106191</v>
+      </c>
+      <c r="M10" t="n">
+        <v>696141</v>
+      </c>
+      <c r="N10" t="inlineStr"/>
+      <c r="O10" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/fichiers/HistoriqueFactures.xlsx
+++ b/fichiers/HistoriqueFactures.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I10"/>
+  <dimension ref="A1:I9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -503,27 +503,27 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>155,000 F</t>
+          <t>82,000 F</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>7,750 F</t>
+          <t>4,100 F</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>147,250 F</t>
+          <t>77,900 F</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>26,505 F</t>
+          <t>14,022 F</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>173,755 F</t>
+          <t>91,922 F</t>
         </is>
       </c>
     </row>
@@ -563,31 +563,11 @@
           <t>Kora SARL</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>915,000 F</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>45,750 F</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>869,250 F</t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>156,465 F</t>
-        </is>
-      </c>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>1,025,715 F</t>
-        </is>
-      </c>
+      <c r="E4" t="inlineStr"/>
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr"/>
+      <c r="I4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -625,31 +605,11 @@
           <t>Dupont SA</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>93,000 F</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>4,650 F</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>88,350 F</t>
-        </is>
-      </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>15,903 F</t>
-        </is>
-      </c>
-      <c r="I6" t="inlineStr">
-        <is>
-          <t>104,253 F</t>
-        </is>
-      </c>
+      <c r="E6" t="inlineStr"/>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr"/>
+      <c r="I6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -659,7 +619,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>14/07/2025</t>
+          <t>15/07/2025</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -672,36 +632,16 @@
           <t>Dupont SA</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>1,490,000 F</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>74,500 F</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>1,415,500 F</t>
-        </is>
-      </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>254,790 F</t>
-        </is>
-      </c>
-      <c r="I7" t="inlineStr">
-        <is>
-          <t>1,670,290 F</t>
-        </is>
-      </c>
+      <c r="E7" t="inlineStr"/>
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr"/>
+      <c r="I7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>3.0</t>
+          <t>4.0</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -719,125 +659,38 @@
           <t>Dupont SA</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>376,000 F</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>18,800 F</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>357,200 F</t>
-        </is>
-      </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>64,296 F</t>
-        </is>
-      </c>
-      <c r="I8" t="inlineStr">
-        <is>
-          <t>421,496 F</t>
-        </is>
-      </c>
+      <c r="E8" t="inlineStr"/>
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr"/>
+      <c r="I8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>4.0</t>
+          <t>5.0</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>14/07/2025</t>
+          <t>15/07/2025</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>C001</t>
+          <t>C002</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Dupont SA</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>520,000 F</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>26,000 F</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>494,000 F</t>
-        </is>
-      </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>88,920 F</t>
-        </is>
-      </c>
-      <c r="I9" t="inlineStr">
-        <is>
-          <t>582,920 F</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>4.0</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>15/07/2025</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>C001</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>Dupont SA</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>621,000 F</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>31,050 F</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>589,950 F</t>
-        </is>
-      </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>106,191 F</t>
-        </is>
-      </c>
-      <c r="I10" t="inlineStr">
-        <is>
-          <t>696,141 F</t>
-        </is>
-      </c>
+          <t>Kora SARL</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr"/>
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr"/>
+      <c r="I9" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/fichiers/HistoriqueFactures.xlsx
+++ b/fichiers/HistoriqueFactures.xlsx
@@ -483,7 +483,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>000005</t>
+          <t>000006</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -493,37 +493,37 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>C002</t>
+          <t>C001</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Kora SARL</t>
+          <t>Dupont SA</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>82,000 F</t>
+          <t>1,455,000 F</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>4,100 F</t>
+          <t>72,750 F</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>77,900 F</t>
+          <t>1,382,250 F</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>14,022 F</t>
+          <t>248,805 F</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>91,922 F</t>
+          <t>1,631,055 F</t>
         </is>
       </c>
     </row>

--- a/fichiers/HistoriqueFactures.xlsx
+++ b/fichiers/HistoriqueFactures.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I9"/>
+  <dimension ref="A1:I12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -483,7 +483,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>000006</t>
+          <t>000007</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -503,27 +503,27 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>1,455,000 F</t>
+          <t>41,000 F</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>72,750 F</t>
+          <t>2,050 F</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>1,382,250 F</t>
+          <t>38,950 F</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>248,805 F</t>
+          <t>7,011 F</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>1,631,055 F</t>
+          <t>45,961 F</t>
         </is>
       </c>
     </row>
@@ -692,6 +692,87 @@
       <c r="H9" t="inlineStr"/>
       <c r="I9" t="inlineStr"/>
     </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>6.0</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>15/07/2025</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>C002</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>Kora SARL</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr"/>
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr"/>
+      <c r="I10" t="inlineStr"/>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>6.0</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>15/07/2025</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>C001</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>Dupont SA</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr"/>
+      <c r="F11" t="inlineStr"/>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr"/>
+      <c r="I11" t="inlineStr"/>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>7.0</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>15/07/2025</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>C002</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>Kora SARL</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr"/>
+      <c r="F12" t="inlineStr"/>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr"/>
+      <c r="I12" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/fichiers/HistoriqueFactures.xlsx
+++ b/fichiers/HistoriqueFactures.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I12"/>
+  <dimension ref="A1:I13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -483,7 +483,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>000007</t>
+          <t>000008</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -503,27 +503,27 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>41,000 F</t>
+          <t>765,000 F</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>2,050 F</t>
+          <t>38,250 F</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>38,950 F</t>
+          <t>726,750 F</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>7,011 F</t>
+          <t>130,815 F</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>45,961 F</t>
+          <t>857,565 F</t>
         </is>
       </c>
     </row>
@@ -759,12 +759,12 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>C002</t>
+          <t>C001</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Kora SARL</t>
+          <t>Dupont SA</t>
         </is>
       </c>
       <c r="E12" t="inlineStr"/>
@@ -773,6 +773,33 @@
       <c r="H12" t="inlineStr"/>
       <c r="I12" t="inlineStr"/>
     </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>7.0</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>15/07/2025</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>C002</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>Kora SARL</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr"/>
+      <c r="F13" t="inlineStr"/>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr"/>
+      <c r="I13" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/fichiers/HistoriqueFactures.xlsx
+++ b/fichiers/HistoriqueFactures.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I13"/>
+  <dimension ref="A1:I14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -493,37 +493,37 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>C001</t>
+          <t>C002</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Dupont SA</t>
+          <t>Kora SARL</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>765,000 F</t>
+          <t>453,000 F</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>38,250 F</t>
+          <t>22,650 F</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>726,750 F</t>
+          <t>430,350 F</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>130,815 F</t>
+          <t>77,463 F</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>857,565 F</t>
+          <t>507,813 F</t>
         </is>
       </c>
     </row>
@@ -800,6 +800,33 @@
       <c r="H13" t="inlineStr"/>
       <c r="I13" t="inlineStr"/>
     </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>8.0</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>15/07/2025</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>C001</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>Dupont SA</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr"/>
+      <c r="F14" t="inlineStr"/>
+      <c r="G14" t="inlineStr"/>
+      <c r="H14" t="inlineStr"/>
+      <c r="I14" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/fichiers/HistoriqueFactures.xlsx
+++ b/fichiers/HistoriqueFactures.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I14"/>
+  <dimension ref="A1:I15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -483,7 +483,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>000008</t>
+          <t>000009</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -503,27 +503,27 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>453,000 F</t>
+          <t>910,000 F</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>22,650 F</t>
+          <t>45,500 F</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>430,350 F</t>
+          <t>864,500 F</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>77,463 F</t>
+          <t>155,610 F</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>507,813 F</t>
+          <t>1,020,110 F</t>
         </is>
       </c>
     </row>
@@ -813,12 +813,12 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>C001</t>
+          <t>C002</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Dupont SA</t>
+          <t>Kora SARL</t>
         </is>
       </c>
       <c r="E14" t="inlineStr"/>
@@ -827,6 +827,33 @@
       <c r="H14" t="inlineStr"/>
       <c r="I14" t="inlineStr"/>
     </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>8.0</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>15/07/2025</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>C001</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>Dupont SA</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr"/>
+      <c r="F15" t="inlineStr"/>
+      <c r="G15" t="inlineStr"/>
+      <c r="H15" t="inlineStr"/>
+      <c r="I15" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/fichiers/HistoriqueFactures.xlsx
+++ b/fichiers/HistoriqueFactures.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I15"/>
+  <dimension ref="A1:I16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -488,42 +488,42 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>15/07/2025</t>
+          <t>16/07/2025</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>C002</t>
+          <t>C001</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Kora SARL</t>
+          <t>Dupont SA</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>910,000 F</t>
+          <t>595,000 F</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>45,500 F</t>
+          <t>29,750 F</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>864,500 F</t>
+          <t>565,250 F</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>155,610 F</t>
+          <t>101,745 F</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>1,020,110 F</t>
+          <t>666,995 F</t>
         </is>
       </c>
     </row>
@@ -854,6 +854,33 @@
       <c r="H15" t="inlineStr"/>
       <c r="I15" t="inlineStr"/>
     </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>9.0</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>15/07/2025</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>C002</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>Kora SARL</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr"/>
+      <c r="F16" t="inlineStr"/>
+      <c r="G16" t="inlineStr"/>
+      <c r="H16" t="inlineStr"/>
+      <c r="I16" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/fichiers/HistoriqueFactures.xlsx
+++ b/fichiers/HistoriqueFactures.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I16"/>
+  <dimension ref="A1:I17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -483,47 +483,47 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>000009</t>
+          <t>000010</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>16/07/2025</t>
+          <t>19/07/2025</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>C001</t>
+          <t>C004</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Dupont SA</t>
+          <t>C004</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>595,000 F</t>
+          <t>0 F</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>29,750 F</t>
+          <t>0 F</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>565,250 F</t>
+          <t>0 F</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>101,745 F</t>
+          <t>0 F</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>666,995 F</t>
+          <t>0 F</t>
         </is>
       </c>
     </row>
@@ -862,17 +862,17 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>15/07/2025</t>
+          <t>16/07/2025</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>C002</t>
+          <t>C001</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Kora SARL</t>
+          <t>Dupont SA</t>
         </is>
       </c>
       <c r="E16" t="inlineStr"/>
@@ -881,6 +881,33 @@
       <c r="H16" t="inlineStr"/>
       <c r="I16" t="inlineStr"/>
     </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>9.0</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>15/07/2025</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>C002</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>Kora SARL</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr"/>
+      <c r="F17" t="inlineStr"/>
+      <c r="G17" t="inlineStr"/>
+      <c r="H17" t="inlineStr"/>
+      <c r="I17" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
